--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H2">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.208871315151269</v>
+        <v>0.265744</v>
       </c>
       <c r="N2">
-        <v>0.208871315151269</v>
+        <v>0.7972319999999999</v>
       </c>
       <c r="O2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="P2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="Q2">
-        <v>0.4697390664068197</v>
+        <v>0.669889601152</v>
       </c>
       <c r="R2">
-        <v>0.4697390664068197</v>
+        <v>6.029006410368</v>
       </c>
       <c r="S2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
       <c r="T2">
-        <v>0.09638044617285729</v>
+        <v>0.1034864391735229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H3">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.270427202953201</v>
+        <v>0.307583</v>
       </c>
       <c r="N3">
-        <v>0.270427202953201</v>
+        <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="P3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="Q3">
-        <v>0.6081745679355072</v>
+        <v>0.775357687064</v>
       </c>
       <c r="R3">
-        <v>0.6081745679355072</v>
+        <v>6.978219183576</v>
       </c>
       <c r="S3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
       <c r="T3">
-        <v>0.1247844609923164</v>
+        <v>0.1197794472135201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H4">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68785595612011</v>
+        <v>1.994584333333333</v>
       </c>
       <c r="N4">
-        <v>1.68785595612011</v>
+        <v>5.983753</v>
       </c>
       <c r="O4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="P4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="Q4">
-        <v>3.79588686212298</v>
+        <v>5.027964144141333</v>
       </c>
       <c r="R4">
-        <v>3.79588686212298</v>
+        <v>45.251677297272</v>
       </c>
       <c r="S4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
       <c r="T4">
-        <v>0.7788350928348263</v>
+        <v>0.7767341136129571</v>
       </c>
     </row>
   </sheetData>
